--- a/documentation/format_data_attendance.xlsx
+++ b/documentation/format_data_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\Documents\GitHub\face-recognition-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B3811-F1FF-46B9-AD76-3457171E485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F1056-E9A5-4B0E-9FB9-4633CE2C8183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Week1</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Example Format</t>
-  </si>
-  <si>
-    <t>Test NumberTwo</t>
   </si>
 </sst>
 </file>
@@ -446,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,124 +507,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10000001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10000002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
